--- a/HP/zj/2022.02.xlsx
+++ b/HP/zj/2022.02.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>2022.02月份旅差费</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>HP打印机安装</t>
+  </si>
+  <si>
+    <t>2022.01.29</t>
+  </si>
+  <si>
+    <t>公司-茂港区沙院镇沙院加油站-公司</t>
+  </si>
+  <si>
+    <t>梁丽婵</t>
+  </si>
+  <si>
+    <t>27*4</t>
+  </si>
+  <si>
+    <t>HP台式机安装系统</t>
   </si>
   <si>
     <t>合计：</t>
@@ -99,7 +114,7 @@
     <numFmt numFmtId="186" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="187" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="39">
+  <fonts count="40" x14ac:knownFonts="40">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -347,6 +362,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -728,7 +748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1304,13 +1324,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1689,7 +1724,10 @@
     <xf numFmtId="187" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="38" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" applyNumberFormat="1" fontId="38" applyFont="1" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1712,7 +1750,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
@@ -1763,68 +1801,82 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="130">
+      <c r="B6" s="11">
         <v>9345939</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="130" t="s">
+      <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="130">
+      <c r="H6" s="11">
         <v>50</v>
       </c>
-      <c r="I6" s="130" t="s">
+      <c r="I6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="54.749165" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="130" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="130" t="s">
+      <c r="G7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="130">
+      <c r="H7" s="11">
         <v>84</v>
       </c>
-      <c r="I7" s="130" t="s">
+      <c r="I7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="J7"/>
     </row>
     <row r="8" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="14"/>
+      <c r="C8" s="131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="11">
+        <v>54</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="75"/>
@@ -1869,11 +1921,11 @@
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G13" s="18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(H6:I12)</f>
-        <v>134</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/HP/zj/2022.02.xlsx
+++ b/HP/zj/2022.02.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>2022.02月份旅差费</t>
   </si>
@@ -78,6 +78,9 @@
     <t>HP打印机安装</t>
   </si>
   <si>
+    <t>WO-016697514</t>
+  </si>
+  <si>
     <t>2022.01.29</t>
   </si>
   <si>
@@ -91,6 +94,50 @@
   </si>
   <si>
     <t>HP台式机安装系统</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1、WO-016774395
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12.0"/>
+        <rFont val="永中宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2、WO-016773056</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.02.08</t>
+  </si>
+  <si>
+    <t>公司-高州市高凉东路维也内酒店-公司</t>
+  </si>
+  <si>
+    <t>伍儒裔</t>
+  </si>
+  <si>
+    <t>36*2</t>
+  </si>
+  <si>
+    <t>HP台式机。1：更换主板;2：追加主板。</t>
+  </si>
+  <si>
+    <t>WO-016773056</t>
+  </si>
+  <si>
+    <t>2022.02.09</t>
+  </si>
+  <si>
+    <t>第二次上门：HP台式机：更换主板</t>
   </si>
   <si>
     <t>合计：</t>
@@ -114,7 +161,7 @@
     <numFmt numFmtId="186" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="187" formatCode="_ * #,##0_ ;_ * -#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="40">
+  <fonts count="41" x14ac:knownFonts="41">
     <font>
       <sz val="12.0"/>
       <name val="永中宋体"/>
@@ -367,6 +414,11 @@
       <name val="永中宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <name val="永中宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="64">
     <fill>
@@ -748,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1339,13 +1391,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1727,7 +1809,16 @@
     <xf numFmtId="0" fontId="38" applyFont="1" fillId="0" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" applyNumberFormat="1" fontId="38" applyFont="1" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+    <xf numFmtId="0" fontId="38" applyFont="1" fillId="0" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" applyFont="1" fillId="0" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" xfId="0">
@@ -1749,8 +1840,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" defaultColWidth="9.000137329101562" x14ac:dyDescent="0.15"/>
@@ -1855,18 +1946,20 @@
       <c r="J7"/>
     </row>
     <row r="8" spans="1:9" ht="40.499382" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="14"/>
-      <c r="C8" s="131" t="s">
+      <c r="B8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="130" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="D8" s="11" t="s">
         <v>23</v>
       </c>
+      <c r="E8" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>13</v>
@@ -1875,28 +1968,60 @@
         <v>54</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.4992" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="75"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="11">
+        <v>72</v>
+      </c>
+      <c r="I9" s="131" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="44.999313" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="11">
+        <v>72</v>
+      </c>
+      <c r="I10" s="131" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="19.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
@@ -1921,11 +2046,11 @@
     </row>
     <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G13" s="18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(H6:I12)</f>
-        <v>188</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
